--- a/docss/trend/malta/E_neuron.xlsx
+++ b/docss/trend/malta/E_neuron.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\malta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="A1:E18"/>
+      <selection activeCell="B1" sqref="B1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,202 +1599,188 @@
       <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2002</v>
       </c>
       <c r="B2" s="6">
-        <v>1.5397076308727264</v>
+        <v>1.54</v>
       </c>
       <c r="C2" s="6">
-        <v>1.9594248533248901</v>
+        <v>1.9590000000000001</v>
       </c>
       <c r="D2" s="6">
-        <v>1.1896819770336151</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>1.19</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2003</v>
       </c>
       <c r="B3" s="6">
-        <v>2.0170755833387375</v>
+        <v>2.0169999999999999</v>
       </c>
       <c r="C3" s="6">
-        <v>3.4409066438674927</v>
+        <v>3.4409999999999998</v>
       </c>
       <c r="D3" s="6">
-        <v>0.92378339171409607</v>
-      </c>
-      <c r="E3" s="5"/>
+        <v>0.92400000000000004</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2004</v>
       </c>
       <c r="B4" s="6">
-        <v>2.0630510747432709</v>
+        <v>2.0630000000000002</v>
       </c>
       <c r="C4" s="6">
-        <v>4.0676451325416565</v>
+        <v>4.0679999999999996</v>
       </c>
       <c r="D4" s="6">
-        <v>0.38163083791732788</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>0.38200000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2005</v>
       </c>
       <c r="B5" s="6">
-        <v>1.0998265594244003</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="6">
-        <v>2.0872274041175842</v>
+        <v>2.0870000000000002</v>
       </c>
       <c r="D5" s="6">
-        <v>0.48252567648887634</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>0.48299999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2006</v>
       </c>
       <c r="B6" s="6">
-        <v>1.5673619359731674</v>
+        <v>1.5669999999999999</v>
       </c>
       <c r="C6" s="6">
-        <v>1.8564219772815704</v>
+        <v>1.8560000000000001</v>
       </c>
       <c r="D6" s="6">
-        <v>1.2048870027065277</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>1.2050000000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2007</v>
       </c>
       <c r="B7" s="6">
-        <v>0.96976944804191589</v>
+        <v>0.97</v>
       </c>
       <c r="C7" s="6">
-        <v>1.2697131633758545</v>
+        <v>1.27</v>
       </c>
       <c r="D7" s="6">
-        <v>0.63609382510185242</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>0.63600000000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2008</v>
       </c>
       <c r="B8" s="6">
-        <v>0.39082702994346619</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="6">
-        <v>0.73966464400291443</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>0.74</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2009</v>
       </c>
       <c r="B9" s="6">
-        <v>2.3689126968383789</v>
+        <v>2.3690000000000002</v>
       </c>
       <c r="C9" s="6">
-        <v>3.7419775426387787</v>
+        <v>3.742</v>
       </c>
       <c r="D9" s="6">
-        <v>1.0798527598381042</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>1.08</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2010</v>
       </c>
       <c r="B10" s="6">
-        <v>0.84118145704269409</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
       </c>
       <c r="D10" s="6">
-        <v>1.6326898336410522</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>1.633</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2011</v>
       </c>
       <c r="B11" s="6">
-        <v>1.3901786953210831</v>
+        <v>1.39</v>
       </c>
       <c r="C11" s="6">
-        <v>0.80644217133522034</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="D11" s="6">
-        <v>1.7991759777069092</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>1.7989999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2012</v>
       </c>
       <c r="B12" s="6">
-        <v>1.444665864109993</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="C12" s="6">
-        <v>1.5429644584655762</v>
+        <v>1.5429999999999999</v>
       </c>
       <c r="D12" s="6">
-        <v>1.3077998608350754</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>1.3080000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2013</v>
       </c>
       <c r="B13" s="6">
-        <v>0.68410034477710724</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="C13" s="6">
-        <v>1.1891381442546844</v>
+        <v>1.1890000000000001</v>
       </c>
       <c r="D13" s="6">
-        <v>0.25542783737182617</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>0.255</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2014</v>
       </c>
       <c r="B14" s="6">
-        <v>1.1175195947289467</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="C14" s="6">
-        <v>1.0519547462463379</v>
+        <v>1.052</v>
       </c>
       <c r="D14" s="6">
-        <v>1.1188917458057404</v>
-      </c>
-      <c r="E14" s="5"/>
+        <v>1.119</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
